--- a/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49978887-D1B7-49C0-ACE5-BAC9FAD8D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30200482-81E6-456A-A015-E5C3A1700231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0BD04EAA-3134-42FC-94B0-C742FACEFBFC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA457810-85CD-4EF8-9240-C0F1B3726A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1659,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C8C99D-894E-44C0-B8DD-1C34E48D41DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A16784C-D278-4DA6-A4EC-22906B81EAFB}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30200482-81E6-456A-A015-E5C3A1700231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC71807-4864-4966-A026-63C6F5044FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA457810-85CD-4EF8-9240-C0F1B3726A6D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49180933-A4FD-41D7-B0C9-D9BECE6F0EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="407">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -83,1168 +83,1177 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>13,07%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>45,75%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
   </si>
   <si>
     <t>45,29%</t>
   </si>
   <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>35,25%</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>31,83%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1659,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A16784C-D278-4DA6-A4EC-22906B81EAFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22607EA0-591D-4D8E-A43C-F1E89112C39E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2097,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2106,13 +2115,13 @@
         <v>2380</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2121,13 +2130,13 @@
         <v>2380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2151,13 @@
         <v>10465</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -2157,13 +2166,13 @@
         <v>9232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -2172,13 +2181,13 @@
         <v>19697</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2202,13 @@
         <v>36782</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -2208,13 +2217,13 @@
         <v>52451</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
@@ -2223,13 +2232,13 @@
         <v>89233</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2253,13 @@
         <v>273676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>418</v>
@@ -2259,13 +2268,13 @@
         <v>322525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>628</v>
@@ -2274,13 +2283,13 @@
         <v>596201</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2304,13 @@
         <v>197304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -2310,13 +2319,13 @@
         <v>161568</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>340</v>
@@ -2325,13 +2334,13 @@
         <v>358872</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,7 +2396,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2399,13 +2408,13 @@
         <v>16297</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -2414,13 +2423,13 @@
         <v>18835</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -2429,13 +2438,13 @@
         <v>35132</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,13 +2459,13 @@
         <v>21916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2465,13 +2474,13 @@
         <v>29705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -2480,13 +2489,13 @@
         <v>51621</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2510,13 @@
         <v>52851</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -2516,13 +2525,13 @@
         <v>64319</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>166</v>
@@ -2531,13 +2540,13 @@
         <v>117170</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2561,13 @@
         <v>95451</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -2567,13 +2576,13 @@
         <v>106915</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>267</v>
@@ -2582,13 +2591,13 @@
         <v>202366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2612,13 @@
         <v>133405</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -2618,13 +2627,13 @@
         <v>150951</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -2633,13 +2642,13 @@
         <v>284356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,7 +2704,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2707,13 +2716,13 @@
         <v>12515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2722,13 +2731,13 @@
         <v>16833</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -2737,13 +2746,13 @@
         <v>29348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2767,13 @@
         <v>8664</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -2773,13 +2782,13 @@
         <v>25223</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -2788,13 +2797,13 @@
         <v>33887</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2818,13 @@
         <v>53112</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
@@ -2824,13 +2833,13 @@
         <v>66904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>184</v>
@@ -2839,13 +2848,13 @@
         <v>120016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2869,13 @@
         <v>79621</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -2875,13 +2884,13 @@
         <v>121457</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>249</v>
@@ -2890,13 +2899,13 @@
         <v>201078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2920,13 @@
         <v>166907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -2926,13 +2935,13 @@
         <v>196789</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>371</v>
@@ -2941,13 +2950,13 @@
         <v>363696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +3012,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3015,13 +3024,13 @@
         <v>1529</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3030,13 +3039,13 @@
         <v>1410</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -3045,10 +3054,10 @@
         <v>2939</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>197</v>
@@ -3135,10 +3144,10 @@
         <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -3147,13 +3156,13 @@
         <v>25876</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3177,13 @@
         <v>149477</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>395</v>
@@ -3183,13 +3192,13 @@
         <v>184127</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>609</v>
@@ -3198,13 +3207,13 @@
         <v>333605</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3228,13 @@
         <v>27517</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -3234,13 +3243,13 @@
         <v>22593</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -3249,13 +3258,13 @@
         <v>50111</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3320,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3323,13 +3332,13 @@
         <v>13454</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>51</v>
@@ -3338,13 +3347,13 @@
         <v>21663</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
@@ -3353,13 +3362,13 @@
         <v>35117</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3383,13 @@
         <v>32491</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>66</v>
@@ -3389,13 +3398,13 @@
         <v>30271</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -3440,13 +3449,13 @@
         <v>50787</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>170</v>
@@ -3455,13 +3464,13 @@
         <v>97761</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3485,13 @@
         <v>87641</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>133</v>
@@ -3491,13 +3500,13 @@
         <v>84789</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>255</v>
@@ -3506,13 +3515,13 @@
         <v>172430</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3536,13 @@
         <v>96662</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>112</v>
@@ -3542,13 +3551,13 @@
         <v>88112</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>213</v>
@@ -3557,13 +3566,13 @@
         <v>184774</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3628,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3631,13 +3640,13 @@
         <v>11822</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
@@ -3646,13 +3655,13 @@
         <v>16483</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>32</v>
@@ -3661,13 +3670,13 @@
         <v>28304</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3691,13 @@
         <v>22847</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
@@ -3697,13 +3706,13 @@
         <v>27680</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>63</v>
@@ -3712,13 +3721,13 @@
         <v>50527</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3742,13 @@
         <v>56775</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H42" s="7">
         <v>105</v>
@@ -3748,13 +3757,13 @@
         <v>79156</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>159</v>
@@ -3763,13 +3772,13 @@
         <v>135931</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3793,13 @@
         <v>288252</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H43" s="7">
         <v>418</v>
@@ -3799,13 +3808,13 @@
         <v>411840</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M43" s="7">
         <v>699</v>
@@ -3814,13 +3823,13 @@
         <v>700092</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3844,13 @@
         <v>247240</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H44" s="7">
         <v>374</v>
@@ -3850,13 +3859,13 @@
         <v>267479</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>313</v>
+        <v>133</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M44" s="7">
         <v>602</v>
@@ -3865,13 +3874,13 @@
         <v>514719</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3936,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3939,13 +3948,13 @@
         <v>14335</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>321</v>
+        <v>69</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H46" s="7">
         <v>20</v>
@@ -3954,13 +3963,13 @@
         <v>13682</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>202</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -3969,13 +3978,13 @@
         <v>28017</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3999,13 @@
         <v>61296</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
       <c r="H47" s="7">
         <v>145</v>
@@ -4250,10 +4259,10 @@
         <v>364</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H52" s="7">
         <v>153</v>
@@ -4265,10 +4274,10 @@
         <v>366</v>
       </c>
       <c r="K52" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M52" s="7">
         <v>234</v>
@@ -4298,13 +4307,13 @@
         <v>176321</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H53" s="7">
         <v>406</v>
@@ -4313,13 +4322,13 @@
         <v>251053</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M53" s="7">
         <v>615</v>
@@ -4328,10 +4337,10 @@
         <v>427374</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>378</v>
@@ -4355,7 +4364,7 @@
         <v>380</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>224</v>
+        <v>381</v>
       </c>
       <c r="H54" s="7">
         <v>895</v>
@@ -4364,13 +4373,13 @@
         <v>574998</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M54" s="7">
         <v>1389</v>
@@ -4379,13 +4388,13 @@
         <v>1004188</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>257</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4409,13 @@
         <v>1512922</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H55" s="7">
         <v>2432</v>
@@ -4415,28 +4424,28 @@
         <v>1736392</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M55" s="7">
         <v>4014</v>
       </c>
       <c r="N55" s="7">
-        <v>3249314</v>
+        <v>3249313</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4460,13 @@
         <v>1191213</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H56" s="7">
         <v>1458</v>
@@ -4466,13 +4475,13 @@
         <v>1140858</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M56" s="7">
         <v>2461</v>
@@ -4481,13 +4490,13 @@
         <v>2332071</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,7 +4538,7 @@
         <v>8713</v>
       </c>
       <c r="N57" s="7">
-        <v>7174648</v>
+        <v>7174647</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>58</v>
@@ -4543,7 +4552,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC71807-4864-4966-A026-63C6F5044FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A87F098-82F4-4A15-AACC-2A2F018101B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49180933-A4FD-41D7-B0C9-D9BECE6F0EF4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5069708-9528-4F21-A52B-084357A428C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="404">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -83,1177 +83,1168 @@
     <t>0,17%</t>
   </si>
   <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>11,41%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>13,07%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
   </si>
   <si>
     <t>45,75%</t>
   </si>
   <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
   </si>
   <si>
     <t>45,29%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
   </si>
   <si>
     <t>35,25%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
+    <t>31,83%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1668,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22607EA0-591D-4D8E-A43C-F1E89112C39E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4158BA9B-202E-4AAB-9FDA-ECA81A362A38}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2106,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2115,13 +2106,13 @@
         <v>2380</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2130,13 +2121,13 @@
         <v>2380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2142,13 @@
         <v>10465</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -2166,13 +2157,13 @@
         <v>9232</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -2181,13 +2172,13 @@
         <v>19697</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2193,13 @@
         <v>36782</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -2217,13 +2208,13 @@
         <v>52451</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
@@ -2232,13 +2223,13 @@
         <v>89233</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2244,13 @@
         <v>273676</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>418</v>
@@ -2268,13 +2259,13 @@
         <v>322525</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>628</v>
@@ -2283,13 +2274,13 @@
         <v>596201</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2295,13 @@
         <v>197304</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -2319,13 +2310,13 @@
         <v>161568</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>340</v>
@@ -2334,13 +2325,13 @@
         <v>358872</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,7 +2387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2408,13 +2399,13 @@
         <v>16297</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -2423,13 +2414,13 @@
         <v>18835</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -2438,13 +2429,13 @@
         <v>35132</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2450,13 @@
         <v>21916</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2474,13 +2465,13 @@
         <v>29705</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -2489,13 +2480,13 @@
         <v>51621</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2501,13 @@
         <v>52851</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -2525,13 +2516,13 @@
         <v>64319</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>166</v>
@@ -2540,13 +2531,13 @@
         <v>117170</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2552,13 @@
         <v>95451</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -2576,13 +2567,13 @@
         <v>106915</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>267</v>
@@ -2591,13 +2582,13 @@
         <v>202366</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2603,13 @@
         <v>133405</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -2627,13 +2618,13 @@
         <v>150951</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -2642,13 +2633,13 @@
         <v>284356</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2695,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2716,13 +2707,13 @@
         <v>12515</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2731,13 +2722,13 @@
         <v>16833</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -2746,13 +2737,13 @@
         <v>29348</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2758,13 @@
         <v>8664</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -2782,13 +2773,13 @@
         <v>25223</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -2797,13 +2788,13 @@
         <v>33887</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2809,13 @@
         <v>53112</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
@@ -2833,13 +2824,13 @@
         <v>66904</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>184</v>
@@ -2848,13 +2839,13 @@
         <v>120016</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2860,13 @@
         <v>79621</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
@@ -2884,13 +2875,13 @@
         <v>121457</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>249</v>
@@ -2899,13 +2890,13 @@
         <v>201078</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2911,13 @@
         <v>166907</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -2935,13 +2926,13 @@
         <v>196789</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>371</v>
@@ -2950,13 +2941,13 @@
         <v>363696</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,7 +3003,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3024,13 +3015,13 @@
         <v>1529</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3039,13 +3030,13 @@
         <v>1410</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -3054,10 +3045,10 @@
         <v>2939</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>197</v>
@@ -3144,10 +3135,10 @@
         <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -3156,13 +3147,13 @@
         <v>25876</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3168,13 @@
         <v>149477</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>395</v>
@@ -3192,13 +3183,13 @@
         <v>184127</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>609</v>
@@ -3207,13 +3198,13 @@
         <v>333605</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3219,13 @@
         <v>27517</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -3243,13 +3234,13 @@
         <v>22593</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -3258,13 +3249,13 @@
         <v>50111</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3311,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3332,13 +3323,13 @@
         <v>13454</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>51</v>
@@ -3347,13 +3338,13 @@
         <v>21663</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
@@ -3362,13 +3353,13 @@
         <v>35117</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3374,13 @@
         <v>32491</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>66</v>
@@ -3398,13 +3389,13 @@
         <v>30271</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -3449,13 +3440,13 @@
         <v>50787</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>170</v>
@@ -3464,13 +3455,13 @@
         <v>97761</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3476,13 @@
         <v>87641</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>133</v>
@@ -3500,13 +3491,13 @@
         <v>84789</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>255</v>
@@ -3515,13 +3506,13 @@
         <v>172430</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3527,13 @@
         <v>96662</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>112</v>
@@ -3551,13 +3542,13 @@
         <v>88112</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>213</v>
@@ -3566,13 +3557,13 @@
         <v>184774</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,7 +3619,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3640,13 +3631,13 @@
         <v>11822</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
@@ -3655,13 +3646,13 @@
         <v>16483</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>32</v>
@@ -3670,13 +3661,13 @@
         <v>28304</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3682,13 @@
         <v>22847</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
@@ -3706,13 +3697,13 @@
         <v>27680</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="M41" s="7">
         <v>63</v>
@@ -3721,13 +3712,13 @@
         <v>50527</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3733,13 @@
         <v>56775</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>105</v>
@@ -3757,13 +3748,13 @@
         <v>79156</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>159</v>
@@ -3772,13 +3763,13 @@
         <v>135931</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3784,13 @@
         <v>288252</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H43" s="7">
         <v>418</v>
@@ -3808,13 +3799,13 @@
         <v>411840</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M43" s="7">
         <v>699</v>
@@ -3823,13 +3814,13 @@
         <v>700092</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3835,13 @@
         <v>247240</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>374</v>
@@ -3859,13 +3850,13 @@
         <v>267479</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M44" s="7">
         <v>602</v>
@@ -3874,13 +3865,13 @@
         <v>514719</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3927,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3948,13 +3939,13 @@
         <v>14335</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>69</v>
+        <v>321</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H46" s="7">
         <v>20</v>
@@ -3963,13 +3954,13 @@
         <v>13682</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -3978,13 +3969,13 @@
         <v>28017</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3990,13 @@
         <v>61296</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H47" s="7">
         <v>145</v>
@@ -4259,10 +4250,10 @@
         <v>364</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>365</v>
+        <v>205</v>
       </c>
       <c r="H52" s="7">
         <v>153</v>
@@ -4274,10 +4265,10 @@
         <v>366</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="M52" s="7">
         <v>234</v>
@@ -4307,13 +4298,13 @@
         <v>176321</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>206</v>
+        <v>371</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H53" s="7">
         <v>406</v>
@@ -4322,13 +4313,13 @@
         <v>251053</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M53" s="7">
         <v>615</v>
@@ -4337,10 +4328,10 @@
         <v>427374</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>378</v>
@@ -4364,7 +4355,7 @@
         <v>380</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>381</v>
+        <v>224</v>
       </c>
       <c r="H54" s="7">
         <v>895</v>
@@ -4373,13 +4364,13 @@
         <v>574998</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M54" s="7">
         <v>1389</v>
@@ -4388,13 +4379,13 @@
         <v>1004188</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P54" s="7" t="s">
-        <v>386</v>
-      </c>
       <c r="Q54" s="7" t="s">
-        <v>387</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4400,13 @@
         <v>1512922</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H55" s="7">
         <v>2432</v>
@@ -4424,28 +4415,28 @@
         <v>1736392</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M55" s="7">
         <v>4014</v>
       </c>
       <c r="N55" s="7">
-        <v>3249313</v>
+        <v>3249314</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4451,13 @@
         <v>1191213</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H56" s="7">
         <v>1458</v>
@@ -4475,13 +4466,13 @@
         <v>1140858</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M56" s="7">
         <v>2461</v>
@@ -4490,13 +4481,13 @@
         <v>2332071</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,7 +4529,7 @@
         <v>8713</v>
       </c>
       <c r="N57" s="7">
-        <v>7174647</v>
+        <v>7174648</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>58</v>
@@ -4552,7 +4543,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A87F098-82F4-4A15-AACC-2A2F018101B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC56CF1-BE9E-4A24-9A19-8D79996619CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5069708-9528-4F21-A52B-084357A428C1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A7E00F4F-44EA-4C11-91DD-1C665126F711}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="400">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -80,1171 +80,1159 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>Muy de acuerdo</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>En desacuerdo</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>De acuerdo</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>Muy de acuerdo</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1659,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4158BA9B-202E-4AAB-9FDA-ECA81A362A38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA0C66F-6DDE-43A1-91A5-40B24B650637}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1795,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1810,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1831,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>11815</v>
+        <v>13666</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1846,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>14227</v>
+        <v>16618</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1861,169 +1849,169 @@
         <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>26042</v>
+        <v>30284</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>34284</v>
+        <v>38667</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>101</v>
       </c>
       <c r="I6" s="7">
-        <v>49639</v>
+        <v>52262</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>148</v>
       </c>
       <c r="N6" s="7">
-        <v>83923</v>
+        <v>90929</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>226</v>
       </c>
       <c r="D7" s="7">
-        <v>184723</v>
+        <v>224546</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>340</v>
       </c>
       <c r="I7" s="7">
-        <v>177835</v>
+        <v>189051</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>566</v>
       </c>
       <c r="N7" s="7">
-        <v>362557</v>
+        <v>413596</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>44</v>
       </c>
       <c r="D8" s="7">
-        <v>29477</v>
+        <v>34564</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
       </c>
       <c r="I8" s="7">
-        <v>29238</v>
+        <v>31240</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
       </c>
       <c r="N8" s="7">
-        <v>58715</v>
+        <v>65804</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,51 +2023,51 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
       </c>
       <c r="N9" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2097,37 +2085,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2380</v>
+        <v>2287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2380</v>
+        <v>2287</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,199 +2127,199 @@
         <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>10465</v>
+        <v>10533</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>9232</v>
+        <v>8547</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>19697</v>
+        <v>19081</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>36782</v>
+        <v>36732</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>52451</v>
+        <v>48653</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
       </c>
       <c r="N12" s="7">
-        <v>89233</v>
+        <v>85385</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>273676</v>
+        <v>271496</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>418</v>
       </c>
       <c r="I13" s="7">
-        <v>322525</v>
+        <v>300107</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>628</v>
       </c>
       <c r="N13" s="7">
-        <v>596201</v>
+        <v>571603</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>138</v>
       </c>
       <c r="D14" s="7">
-        <v>197304</v>
+        <v>198631</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
       </c>
       <c r="I14" s="7">
-        <v>161568</v>
+        <v>149905</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>340</v>
       </c>
       <c r="N14" s="7">
-        <v>358872</v>
+        <v>348536</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,51 +2331,51 @@
         <v>381</v>
       </c>
       <c r="D15" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>710</v>
       </c>
       <c r="I15" s="7">
-        <v>548156</v>
+        <v>509500</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1091</v>
       </c>
       <c r="N15" s="7">
-        <v>1066383</v>
+        <v>1026893</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2396,46 +2384,46 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>16297</v>
+        <v>15715</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
       </c>
       <c r="I16" s="7">
-        <v>18835</v>
+        <v>17263</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>35132</v>
+        <v>32979</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2435,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>21916</v>
+        <v>21033</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>110</v>
@@ -2462,7 +2450,7 @@
         <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>29705</v>
+        <v>27626</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>111</v>
@@ -2477,7 +2465,7 @@
         <v>80</v>
       </c>
       <c r="N17" s="7">
-        <v>51621</v>
+        <v>48659</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>114</v>
@@ -2492,13 +2480,13 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>52851</v>
+        <v>51159</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>117</v>
@@ -2513,7 +2501,7 @@
         <v>99</v>
       </c>
       <c r="I18" s="7">
-        <v>64319</v>
+        <v>59951</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>120</v>
@@ -2528,7 +2516,7 @@
         <v>166</v>
       </c>
       <c r="N18" s="7">
-        <v>117170</v>
+        <v>111110</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>123</v>
@@ -2543,13 +2531,13 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>108</v>
       </c>
       <c r="D19" s="7">
-        <v>95451</v>
+        <v>93163</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>126</v>
@@ -2564,7 +2552,7 @@
         <v>159</v>
       </c>
       <c r="I19" s="7">
-        <v>106915</v>
+        <v>99899</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>129</v>
@@ -2579,7 +2567,7 @@
         <v>267</v>
       </c>
       <c r="N19" s="7">
-        <v>202366</v>
+        <v>193063</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>132</v>
@@ -2594,13 +2582,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>132</v>
       </c>
       <c r="D20" s="7">
-        <v>133405</v>
+        <v>132775</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>135</v>
@@ -2615,7 +2603,7 @@
         <v>191</v>
       </c>
       <c r="I20" s="7">
-        <v>150951</v>
+        <v>142013</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>138</v>
@@ -2630,7 +2618,7 @@
         <v>323</v>
       </c>
       <c r="N20" s="7">
-        <v>284356</v>
+        <v>274789</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>141</v>
@@ -2651,46 +2639,46 @@
         <v>357</v>
       </c>
       <c r="D21" s="7">
-        <v>319920</v>
+        <v>313846</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>532</v>
       </c>
       <c r="I21" s="7">
-        <v>370725</v>
+        <v>346752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>889</v>
       </c>
       <c r="N21" s="7">
-        <v>690645</v>
+        <v>660599</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2692,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>12515</v>
+        <v>12098</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>145</v>
@@ -2719,7 +2707,7 @@
         <v>23</v>
       </c>
       <c r="I22" s="7">
-        <v>16833</v>
+        <v>15561</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>148</v>
@@ -2734,7 +2722,7 @@
         <v>32</v>
       </c>
       <c r="N22" s="7">
-        <v>29348</v>
+        <v>27659</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>151</v>
@@ -2743,7 +2731,7 @@
         <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,199 +2743,199 @@
         <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>8664</v>
+        <v>8189</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
       </c>
       <c r="I23" s="7">
-        <v>25223</v>
+        <v>23631</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
       </c>
       <c r="N23" s="7">
-        <v>33887</v>
+        <v>31820</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>62</v>
       </c>
       <c r="D24" s="7">
-        <v>53112</v>
+        <v>50599</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
       </c>
       <c r="I24" s="7">
-        <v>66904</v>
+        <v>62013</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>184</v>
       </c>
       <c r="N24" s="7">
-        <v>120016</v>
+        <v>112612</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>76</v>
       </c>
       <c r="D25" s="7">
-        <v>79621</v>
+        <v>76447</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>173</v>
       </c>
       <c r="I25" s="7">
-        <v>121457</v>
+        <v>136484</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>249</v>
       </c>
       <c r="N25" s="7">
-        <v>201078</v>
+        <v>212931</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>135</v>
       </c>
       <c r="D26" s="7">
-        <v>166907</v>
+        <v>163873</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
       </c>
       <c r="I26" s="7">
-        <v>196789</v>
+        <v>236736</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>371</v>
       </c>
       <c r="N26" s="7">
-        <v>363696</v>
+        <v>400608</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,51 +2947,51 @@
         <v>290</v>
       </c>
       <c r="D27" s="7">
-        <v>320819</v>
+        <v>311206</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>595</v>
       </c>
       <c r="I27" s="7">
-        <v>427206</v>
+        <v>474426</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>885</v>
       </c>
       <c r="N27" s="7">
-        <v>748025</v>
+        <v>785631</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3012,46 +3000,46 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>1529</v>
+        <v>1387</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>1410</v>
+        <v>1285</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>2939</v>
+        <v>2672</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,199 +3051,199 @@
         <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>6827</v>
+        <v>6171</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
       </c>
       <c r="I29" s="7">
-        <v>8887</v>
+        <v>8119</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
       </c>
       <c r="N29" s="7">
-        <v>15714</v>
+        <v>14290</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>11398</v>
+        <v>10316</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
       </c>
       <c r="I30" s="7">
-        <v>14478</v>
+        <v>12794</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
       </c>
       <c r="N30" s="7">
-        <v>25876</v>
+        <v>23110</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>214</v>
       </c>
       <c r="D31" s="7">
-        <v>149477</v>
+        <v>135956</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>395</v>
       </c>
       <c r="I31" s="7">
-        <v>184127</v>
+        <v>166168</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>609</v>
       </c>
       <c r="N31" s="7">
-        <v>333605</v>
+        <v>302124</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>34</v>
       </c>
       <c r="D32" s="7">
-        <v>27517</v>
+        <v>24912</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
       </c>
       <c r="I32" s="7">
-        <v>22593</v>
+        <v>19908</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
       </c>
       <c r="N32" s="7">
-        <v>50111</v>
+        <v>44820</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,51 +3255,51 @@
         <v>279</v>
       </c>
       <c r="D33" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
       </c>
       <c r="I33" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
       </c>
       <c r="N33" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3320,46 +3308,46 @@
         <v>24</v>
       </c>
       <c r="D34" s="7">
-        <v>13454</v>
+        <v>12832</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>51</v>
       </c>
       <c r="I34" s="7">
-        <v>21663</v>
+        <v>20306</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
       </c>
       <c r="N34" s="7">
-        <v>35117</v>
+        <v>33138</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,199 +3359,199 @@
         <v>52</v>
       </c>
       <c r="D35" s="7">
-        <v>32491</v>
+        <v>31177</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>66</v>
       </c>
       <c r="I35" s="7">
-        <v>30271</v>
+        <v>28199</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
       </c>
       <c r="N35" s="7">
-        <v>62763</v>
+        <v>59376</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <v>72</v>
       </c>
       <c r="D36" s="7">
-        <v>46975</v>
+        <v>45766</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>98</v>
       </c>
       <c r="I36" s="7">
-        <v>50787</v>
+        <v>47411</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>170</v>
       </c>
       <c r="N36" s="7">
-        <v>97761</v>
+        <v>93177</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>122</v>
       </c>
       <c r="D37" s="7">
-        <v>87641</v>
+        <v>84997</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>133</v>
       </c>
       <c r="I37" s="7">
-        <v>84789</v>
+        <v>78955</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>255</v>
       </c>
       <c r="N37" s="7">
-        <v>172430</v>
+        <v>163952</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>101</v>
       </c>
       <c r="D38" s="7">
-        <v>96662</v>
+        <v>94865</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>112</v>
       </c>
       <c r="I38" s="7">
-        <v>88112</v>
+        <v>82185</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>213</v>
       </c>
       <c r="N38" s="7">
-        <v>184774</v>
+        <v>177050</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,51 +3563,51 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
       </c>
       <c r="I39" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>831</v>
       </c>
       <c r="N39" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3628,46 +3616,46 @@
         <v>11</v>
       </c>
       <c r="D40" s="7">
-        <v>11822</v>
+        <v>11390</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
       </c>
       <c r="I40" s="7">
-        <v>16483</v>
+        <v>14872</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>32</v>
       </c>
       <c r="N40" s="7">
-        <v>28304</v>
+        <v>26262</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,199 +3667,199 @@
         <v>24</v>
       </c>
       <c r="D41" s="7">
-        <v>22847</v>
+        <v>22091</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
       </c>
       <c r="I41" s="7">
-        <v>27680</v>
+        <v>25242</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>63</v>
       </c>
       <c r="N41" s="7">
-        <v>50527</v>
+        <v>47333</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>54</v>
       </c>
       <c r="D42" s="7">
-        <v>56775</v>
+        <v>55001</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>105</v>
       </c>
       <c r="I42" s="7">
-        <v>79156</v>
+        <v>72931</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>159</v>
       </c>
       <c r="N42" s="7">
-        <v>135931</v>
+        <v>127932</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7">
         <v>281</v>
       </c>
       <c r="D43" s="7">
-        <v>288252</v>
+        <v>284646</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H43" s="7">
         <v>418</v>
       </c>
       <c r="I43" s="7">
-        <v>411840</v>
+        <v>485853</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M43" s="7">
         <v>699</v>
       </c>
       <c r="N43" s="7">
-        <v>700092</v>
+        <v>770498</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7">
         <v>228</v>
       </c>
       <c r="D44" s="7">
-        <v>247240</v>
+        <v>250405</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H44" s="7">
         <v>374</v>
       </c>
       <c r="I44" s="7">
-        <v>267479</v>
+        <v>248933</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M44" s="7">
         <v>602</v>
       </c>
       <c r="N44" s="7">
-        <v>514719</v>
+        <v>499338</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,51 +3871,51 @@
         <v>598</v>
       </c>
       <c r="D45" s="7">
-        <v>626936</v>
+        <v>623532</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>957</v>
       </c>
       <c r="I45" s="7">
-        <v>802638</v>
+        <v>847831</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M45" s="7">
         <v>1555</v>
       </c>
       <c r="N45" s="7">
-        <v>1429574</v>
+        <v>1471363</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3936,46 +3924,46 @@
         <v>14</v>
       </c>
       <c r="D46" s="7">
-        <v>14335</v>
+        <v>11852</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H46" s="7">
         <v>20</v>
       </c>
       <c r="I46" s="7">
-        <v>13682</v>
+        <v>11530</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
       </c>
       <c r="N46" s="7">
-        <v>28017</v>
+        <v>23382</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>60</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,199 +3975,199 @@
         <v>64</v>
       </c>
       <c r="D47" s="7">
-        <v>61296</v>
+        <v>52408</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>145</v>
       </c>
       <c r="I47" s="7">
-        <v>105828</v>
+        <v>88502</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>209</v>
       </c>
       <c r="N47" s="7">
-        <v>167125</v>
+        <v>140909</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="7">
         <v>148</v>
       </c>
       <c r="D48" s="7">
-        <v>137015</v>
+        <v>116208</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>339</v>
+        <v>36</v>
       </c>
       <c r="H48" s="7">
         <v>264</v>
       </c>
       <c r="I48" s="7">
-        <v>197263</v>
+        <v>164174</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M48" s="7">
         <v>412</v>
       </c>
       <c r="N48" s="7">
-        <v>334278</v>
+        <v>280382</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="7">
         <v>345</v>
       </c>
       <c r="D49" s="7">
-        <v>354081</v>
+        <v>301482</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H49" s="7">
         <v>396</v>
       </c>
       <c r="I49" s="7">
-        <v>326902</v>
+        <v>269646</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M49" s="7">
         <v>741</v>
       </c>
       <c r="N49" s="7">
-        <v>680983</v>
+        <v>571128</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="7">
         <v>191</v>
       </c>
       <c r="D50" s="7">
-        <v>292701</v>
+        <v>446770</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H50" s="7">
         <v>236</v>
       </c>
       <c r="I50" s="7">
-        <v>224128</v>
+        <v>183338</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M50" s="7">
         <v>427</v>
       </c>
       <c r="N50" s="7">
-        <v>516828</v>
+        <v>630108</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,46 +4179,46 @@
         <v>762</v>
       </c>
       <c r="D51" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
       </c>
       <c r="I51" s="7">
-        <v>867803</v>
+        <v>717189</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M51" s="7">
         <v>1823</v>
       </c>
       <c r="N51" s="7">
-        <v>1727231</v>
+        <v>1645909</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,46 +4232,46 @@
         <v>81</v>
       </c>
       <c r="D52" s="7">
-        <v>69952</v>
+        <v>65273</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>205</v>
+        <v>361</v>
       </c>
       <c r="H52" s="7">
         <v>153</v>
       </c>
       <c r="I52" s="7">
-        <v>91749</v>
+        <v>83569</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>367</v>
+        <v>146</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>286</v>
+        <v>362</v>
       </c>
       <c r="M52" s="7">
         <v>234</v>
       </c>
       <c r="N52" s="7">
-        <v>161701</v>
+        <v>148842</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,199 +4283,199 @@
         <v>209</v>
       </c>
       <c r="D53" s="7">
-        <v>176321</v>
+        <v>165270</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H53" s="7">
         <v>406</v>
       </c>
       <c r="I53" s="7">
-        <v>251053</v>
+        <v>226484</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M53" s="7">
         <v>615</v>
       </c>
       <c r="N53" s="7">
-        <v>427374</v>
+        <v>391753</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="7">
         <v>494</v>
       </c>
       <c r="D54" s="7">
-        <v>429190</v>
+        <v>404447</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>224</v>
+        <v>376</v>
       </c>
       <c r="H54" s="7">
         <v>895</v>
       </c>
       <c r="I54" s="7">
-        <v>574998</v>
+        <v>520189</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M54" s="7">
         <v>1389</v>
       </c>
       <c r="N54" s="7">
-        <v>1004188</v>
+        <v>924636</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>257</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="7">
         <v>1582</v>
       </c>
       <c r="D55" s="7">
-        <v>1512922</v>
+        <v>1472734</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H55" s="7">
         <v>2432</v>
       </c>
       <c r="I55" s="7">
-        <v>1736392</v>
+        <v>1726162</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M55" s="7">
         <v>4014</v>
       </c>
       <c r="N55" s="7">
-        <v>3249314</v>
+        <v>3198895</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>394</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="7">
         <v>1003</v>
       </c>
       <c r="D56" s="7">
-        <v>1191213</v>
+        <v>1346795</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H56" s="7">
         <v>1458</v>
       </c>
       <c r="I56" s="7">
-        <v>1140858</v>
+        <v>1094259</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>272</v>
+        <v>395</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>399</v>
+        <v>95</v>
       </c>
       <c r="M56" s="7">
         <v>2461</v>
       </c>
       <c r="N56" s="7">
-        <v>2332071</v>
+        <v>2441053</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,51 +4487,51 @@
         <v>3369</v>
       </c>
       <c r="D57" s="7">
-        <v>3379598</v>
+        <v>3454518</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H57" s="7">
         <v>5344</v>
       </c>
       <c r="I57" s="7">
-        <v>3795050</v>
+        <v>3650662</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
         <v>8713</v>
       </c>
       <c r="N57" s="7">
-        <v>7174648</v>
+        <v>7105180</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
